--- a/data/case.xlsx
+++ b/data/case.xlsx
@@ -647,7 +647,7 @@
       <c r="Q2" s="3" t="inlineStr"/>
       <c r="R2" s="3" t="inlineStr">
         <is>
-          <t>2022-01-10 15-19-10</t>
+          <t>2022-01-12 14-31-39</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       <c r="Q3" s="0" t="inlineStr"/>
       <c r="R3" s="3" t="inlineStr">
         <is>
-          <t>2022-01-10 15-19-10</t>
+          <t>2022-01-12 14-31-39</t>
         </is>
       </c>
     </row>
@@ -800,7 +800,7 @@
       <c r="Q4" s="3" t="inlineStr"/>
       <c r="R4" s="3" t="inlineStr">
         <is>
-          <t>2022-01-10 15-19-10</t>
+          <t>2022-01-12 14-31-39</t>
         </is>
       </c>
     </row>

--- a/data/case.xlsx
+++ b/data/case.xlsx
@@ -3,25 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2480" yWindow="500" windowWidth="28240" windowHeight="17380" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28000" windowHeight="13400" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="21">
     <font>
       <name val="等线"/>
       <charset val="134"/>
-      <family val="2"/>
       <color theme="1"/>
       <sz val="12"/>
       <scheme val="minor"/>
@@ -29,36 +28,349 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <family val="3"/>
       <color rgb="FF000000"/>
       <sz val="12"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="134"/>
-      <family val="2"/>
-      <sz val="9"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <family val="2"/>
       <color theme="10"/>
       <sz val="12"/>
       <u val="single"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -66,12 +378,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -79,20 +630,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="41">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -209,7 +807,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -242,26 +840,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -294,23 +875,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -452,12 +1016,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -469,169 +1027,169 @@
   </sheetPr>
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col width="14" customWidth="1" style="3" min="2" max="2"/>
-    <col width="14.33203125" customWidth="1" style="3" min="3" max="4"/>
-    <col width="16" customWidth="1" style="4" min="12" max="12"/>
-    <col width="10.83203125" customWidth="1" style="3" min="16" max="19"/>
+    <col width="14" customWidth="1" style="1" min="2" max="2"/>
+    <col width="14.3333333333333" customWidth="1" style="1" min="3" max="4"/>
+    <col width="16" customWidth="1" style="3" min="12" max="12"/>
+    <col width="10.8333333333333" customWidth="1" style="1" min="16" max="19"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32" customHeight="1" s="4">
+    <row r="1" ht="32" customHeight="1" s="3">
       <c r="A1" s="0" t="inlineStr">
         <is>
           <t>用例id</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>url域名</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>url地址</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>模块</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>标题</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>是否执行</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>请求方式</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>传参方式</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>前置用例id</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>前置的字段</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>请求头</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>请求参数</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>断言类型</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>断言对比值</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="2" t="inlineStr">
         <is>
           <t>执行结果</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t>结果详情</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="2" t="inlineStr">
         <is>
           <t>响应内容</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="2" t="inlineStr">
         <is>
           <t>更新时间</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="96" customHeight="1" s="4">
+    <row r="2" ht="96" customHeight="1" s="3">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>http://shop-xo.hctestedu.com</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>/index.php?s=/api/user/login&amp;application=app</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="1" t="inlineStr">
         <is>
           <t>商城</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>登录接口</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>json</t>
         </is>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="I2" s="2" t="n">
         <v>-1</v>
       </c>
-      <c r="J2" s="1" t="n"/>
-      <c r="K2" s="1" t="inlineStr">
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="inlineStr">
         <is>
           <t>{'content_type':'application/x-www-form-urlencoded'}</t>
         </is>
       </c>
-      <c r="L2" s="1" t="inlineStr">
+      <c r="L2" s="2" t="inlineStr">
         <is>
           <t>{"type":"username", "accounts":"admin", "pwd":"123456"}</t>
         </is>
       </c>
-      <c r="M2" s="1" t="inlineStr">
+      <c r="M2" s="2" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="N2" s="1" t="n">
+      <c r="N2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O2" s="0" t="inlineStr">
@@ -639,48 +1197,48 @@
           <t>pass</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="P2" s="1" t="inlineStr">
         <is>
           <t>模块:商城, 标题:登录接口, 断言类型是:code, 响应msg:登录成功</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr"/>
-      <c r="R2" s="3" t="inlineStr">
-        <is>
-          <t>2022-01-12 14-31-39</t>
+      <c r="Q2" s="1" t="inlineStr"/>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-20 15-32-18</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="192" customHeight="1" s="4">
+    <row r="3" ht="192" customHeight="1" s="3">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>https://m.dianping.com</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>/brandactivity/query/searchShop</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>商业活动</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 商户接口</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>get</t>
         </is>
@@ -693,7 +1251,7 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="L3" s="1" t="inlineStr">
+      <c r="L3" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> {'config':'35F332DFB91C206AC8D2223CDE7E58B0',
      'start':0,
@@ -701,7 +1259,7 @@
      }</t>
         </is>
       </c>
-      <c r="M3" s="1" t="inlineStr">
+      <c r="M3" s="2" t="inlineStr">
         <is>
           <t>code&amp;data_json_dict</t>
         </is>
@@ -714,77 +1272,77 @@
           <t>pass</t>
         </is>
       </c>
-      <c r="P3" s="3" t="inlineStr">
+      <c r="P3" s="1" t="inlineStr">
         <is>
           <t>模块:商业活动, 标题: 商户接口, 断言类型是:code&amp;data_json_dict, 响应msg:操作成功</t>
         </is>
       </c>
       <c r="Q3" s="0" t="inlineStr"/>
-      <c r="R3" s="3" t="inlineStr">
-        <is>
-          <t>2022-01-12 14-31-39</t>
+      <c r="R3" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-20 15-32-18</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="102" customHeight="1" s="4">
+    <row r="4" ht="102" customHeight="1" s="3">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>http://shop-xo.hctestedu.com</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>/index.php?s=/api/goods/favor&amp;application=app&amp;application_client_type=weixin</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="1" t="inlineStr">
         <is>
           <t>商城</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>收藏接口</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>json</t>
         </is>
       </c>
-      <c r="I4" s="1" t="n">
+      <c r="I4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="J4" s="1" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>[{"field":"token","scope":"body"}]</t>
         </is>
       </c>
-      <c r="K4" s="1" t="n"/>
-      <c r="L4" s="1" t="inlineStr">
+      <c r="K4" s="2" t="n"/>
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>{"id":6,"token":"$token$"}</t>
         </is>
       </c>
-      <c r="M4" s="1" t="inlineStr">
+      <c r="M4" s="2" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="N4" s="1" t="n">
+      <c r="N4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O4" s="0" t="inlineStr">
@@ -792,28 +1350,28 @@
           <t>pass</t>
         </is>
       </c>
-      <c r="P4" s="3" t="inlineStr">
-        <is>
-          <t>模块:商城, 标题:收藏接口, 断言类型是:code, 响应msg:取消成功</t>
-        </is>
-      </c>
-      <c r="Q4" s="3" t="inlineStr"/>
-      <c r="R4" s="3" t="inlineStr">
-        <is>
-          <t>2022-01-12 14-31-39</t>
+      <c r="P4" s="1" t="inlineStr">
+        <is>
+          <t>模块:商城, 标题:收藏接口, 断言类型是:code, 响应msg:收藏成功</t>
+        </is>
+      </c>
+      <c r="Q4" s="1" t="inlineStr"/>
+      <c r="R4" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-20 15-32-18</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="K9" s="2" t="n"/>
+      <c r="K9" s="4" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="4">
+    <dataValidation sqref="F2:F1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"yes,no"</formula1>
+    </dataValidation>
     <dataValidation sqref="G2:G1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"get,post"</formula1>
-    </dataValidation>
-    <dataValidation sqref="F2:F1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"yes,no"</formula1>
     </dataValidation>
     <dataValidation sqref="H2:H1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"json"</formula1>
@@ -822,7 +1380,7 @@
       <formula1>"code,data_json_list,data_json_dict,code&amp;data_json_dict,code&amp;data_json_list"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -838,64 +1396,64 @@
       <selection activeCell="A1" sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" ht="136" customHeight="1" s="4">
+    <row r="1" ht="136" customHeight="1" s="3">
       <c r="A1" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>http://shop-xo.hctestedu.com</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>http://shop-xo.hctestedu.com/index.php?s=/api/goods/favor&amp;application=app&amp;application_client_type=weixin</t>
         </is>
       </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>收藏接口</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="H1" s="1" t="n"/>
-      <c r="I1" s="1" t="n">
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>['token']</t>
         </is>
       </c>
-      <c r="K1" s="1" t="n"/>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>{"id":6}</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="N1" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O1" s="1" t="n"/>
+      <c r="O1" s="2" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/case.xlsx
+++ b/data/case.xlsx
@@ -1205,7 +1205,7 @@
       <c r="Q2" s="1" t="inlineStr"/>
       <c r="R2" s="1" t="inlineStr">
         <is>
-          <t>2022-06-20 15-32-18</t>
+          <t>2022-06-20 16-05-41</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       <c r="Q3" s="0" t="inlineStr"/>
       <c r="R3" s="1" t="inlineStr">
         <is>
-          <t>2022-06-20 15-32-18</t>
+          <t>2022-06-20 16-05-41</t>
         </is>
       </c>
     </row>
@@ -1352,13 +1352,13 @@
       </c>
       <c r="P4" s="1" t="inlineStr">
         <is>
-          <t>模块:商城, 标题:收藏接口, 断言类型是:code, 响应msg:收藏成功</t>
+          <t>模块:商城, 标题:收藏接口, 断言类型是:code, 响应msg:取消成功</t>
         </is>
       </c>
       <c r="Q4" s="1" t="inlineStr"/>
       <c r="R4" s="1" t="inlineStr">
         <is>
-          <t>2022-06-20 15-32-18</t>
+          <t>2022-06-20 16-05-41</t>
         </is>
       </c>
     </row>
